--- a/site_of_analysis_h_x_p_t/groundwater_levels/Questions_(VOBAR)-26.02.24-avr.xlsx
+++ b/site_of_analysis_h_x_p_t/groundwater_levels/Questions_(VOBAR)-26.02.24-avr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>VOBAR</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>В порядке частоты использования: 1) GoogleChrome, 2) Mozilla Firefox, 3) Opera, 4) Яндекс Браузер.</t>
-  </si>
-  <si>
-    <t>Это нужно уточнить! Или проверить.</t>
   </si>
   <si>
     <t xml:space="preserve">Поддерживается ли верстка сайта под мобильный телефон?
@@ -524,6 +521,9 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -591,6 +591,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -605,81 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,77 +966,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="41" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="41" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="3">
         <v>45352</v>
       </c>
@@ -1050,391 +1047,389 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="25" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="34"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="6">
         <v>12</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="20" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="6">
         <v>10</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="6">
         <v>10</v>
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="6">
         <v>12</v>
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="6">
         <v>7</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="6">
         <v>7</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
+      <c r="C13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="6">
         <v>7</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="54" t="s">
+    <row r="14" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="56">
+      <c r="C14" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="53">
         <v>7</v>
       </c>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-    </row>
-    <row r="15" spans="2:16" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="2:16" ht="376.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="52"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
+      <c r="C16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="6">
         <v>7</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="C17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="6">
         <v>7</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
       <c r="N18" s="6">
         <v>10</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24"/>
+      <c r="C19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
       <c r="N19" s="6">
         <v>12</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24"/>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
       <c r="N20" s="6">
         <v>12</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="58">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="7">
         <f>AVERAGE(N7:N20)</f>
         <v>9.2307692307692299</v>
       </c>

--- a/site_of_analysis_h_x_p_t/groundwater_levels/Questions_(VOBAR)-26.02.24-avr.xlsx
+++ b/site_of_analysis_h_x_p_t/groundwater_levels/Questions_(VOBAR)-26.02.24-avr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>VOBAR</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>13.</t>
-  </si>
-  <si>
-    <t>Умейте запустить проект…</t>
   </si>
   <si>
     <t>pipenv shell → pipenv install Django →P.S. Из директории site_of_analysis_h_x_p_t нужно запустить python manage.py runserver → http://127.0.0.1:8000/draw - в любом браузере</t>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>На чём он написан? (перечислить языки и технологии)</t>
-  </si>
-  <si>
-    <t>Языки: JavaScript и Python; Технологии: Django, Pandas, GitHub</t>
   </si>
   <si>
     <r>
@@ -135,11 +129,6 @@
     <t>Сами с нуля или использовали фреймворки?</t>
   </si>
   <si>
-    <t xml:space="preserve">В данной работе использованы библиотеки Pandas, но где использованы фреймворки до конца непонятно?
-Реально использован только один фреймворк – Django.
-</t>
-  </si>
-  <si>
     <t>Какие браузеры поддерживаются?</t>
   </si>
   <si>
@@ -151,21 +140,7 @@
 </t>
   </si>
   <si>
-    <t>В данной работе вёрстка сайта под мобильный телефон не рассматривалась.</t>
-  </si>
-  <si>
     <t>Какая База Данных используется?</t>
-  </si>
-  <si>
-    <t>В данной работе БД не используется. Это конечно недостаток, который нужно ликвидировать.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Демонстрировать практически нечего. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отвечать на вопросы по конкретному экрану,
-например "почему выбран тип данных varchar?"
-</t>
   </si>
   <si>
     <t>Есть ли защищенные страницы?</t>
@@ -237,6 +212,34 @@
   </si>
   <si>
     <t>В настоящее время данная работа носит локальный характер. Однако, в перспективе предполагается присоединить её к общедоступному сайту ФГБУ "Гидрометцентр России" - https://meteoinfo.ru/pogoda: 1) меню - Фактические данные; 2) Подменю - Уровень грунтовых вод (проект "Гражданская наука"): 55 град. 31.8 минут северной широты и 37 град. 3.1 минут восточной долготы.</t>
+  </si>
+  <si>
+    <t>Умейте запустить проект… (мы работаем очень правильно со средой. Поэтому через pipenv)</t>
+  </si>
+  <si>
+    <t>Языки: JavaScript и Python, HTML, CSS; Технологии: Django, Pandas, Git; СУБД</t>
+  </si>
+  <si>
+    <t>В данной работе вёрстка сайта успешно работает как в вертикальной, так и в горизонтальной ориентации большинства устройств</t>
+  </si>
+  <si>
+    <t>В данной работе БД представляет собой xls-файлы, обрабатываемые с помощью Pandas. Это позволяет пополнять её людям, далёким от высоких технологий, например, волонтёрам нашего общества</t>
+  </si>
+  <si>
+    <t>Отвечать на вопросы по конкретному экрану,
+например "почему выбран тип данных varchar?"
+Типы: datetime, float64 - для numpy (в Pandas) - дата, время и вещественные числа</t>
+  </si>
+  <si>
+    <t>Все страницы общедоступны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В данной работе использованы библиотеки Pandas, matplotlib.
+Фреймворк – Django.
+</t>
+  </si>
+  <si>
+    <t>Реально можно показать файл !$$!-TABLE_(H-X-P-T_&amp;_pH-EC-t).xlsx и сделать пояснения по его составу:  1) состав наблюдений (h, x, P, t, pH, EC, tw, ORG; 2) частота наблюдений: a) h, pH, EC, tw, ORG - один раз в неделю, b) x, P, t - ежесуточно; 3) период наблюдений: a) h, x, P, t - с 11.05.2020 г., b) pH, EC, tw и ряд других характеристик - с 05.11.2023 г.</t>
   </si>
 </sst>
 </file>
@@ -335,6 +338,7 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -501,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -523,6 +527,129 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -551,132 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,478 +967,542 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1"/>
+    <col min="14" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="38" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="17"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+    </row>
+    <row r="5" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
       <c r="N5" s="3">
         <v>45352</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>6</v>
+      <c r="O5" s="8">
+        <v>45355</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-    </row>
-    <row r="7" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="6">
         <v>12</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="6">
+        <v>12</v>
+      </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
       <c r="N8" s="6">
         <v>10</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="6">
+        <v>11</v>
+      </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:16" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="C9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
       <c r="N9" s="6">
         <v>10</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="6">
+        <v>11</v>
+      </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="C10" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
       <c r="N10" s="6">
         <v>12</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="6">
+        <v>12</v>
+      </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="C11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
       <c r="N11" s="6">
         <v>7</v>
       </c>
-      <c r="O11" s="5"/>
+      <c r="O11" s="6">
+        <v>11</v>
+      </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="6">
         <v>7</v>
       </c>
-      <c r="O12" s="5"/>
+      <c r="O12" s="6">
+        <v>12</v>
+      </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21" t="s">
+      <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="6">
         <v>7</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="6">
+        <v>7</v>
+      </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="51" t="s">
+    <row r="14" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="53">
+      <c r="C14" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="31">
         <v>7</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-    </row>
-    <row r="15" spans="2:16" ht="376.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="52"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O14" s="31">
+        <v>11</v>
+      </c>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="2:16" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+      <c r="C16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="6">
         <v>7</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="6">
+        <v>7</v>
+      </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="C17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
       <c r="N17" s="6">
         <v>7</v>
       </c>
-      <c r="O17" s="5"/>
+      <c r="O17" s="6">
+        <v>7</v>
+      </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
       <c r="N18" s="6">
         <v>10</v>
       </c>
-      <c r="O18" s="5"/>
+      <c r="O18" s="6">
+        <v>11</v>
+      </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
       <c r="N19" s="6">
         <v>12</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="6">
+        <v>12</v>
+      </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
       <c r="N20" s="6">
         <v>12</v>
       </c>
-      <c r="O20" s="5"/>
+      <c r="O20" s="6">
+        <v>12</v>
+      </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="2:16" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
+    <row r="21" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="7">
         <f>AVERAGE(N7:N20)</f>
         <v>9.2307692307692299</v>
       </c>
-      <c r="O21" s="2"/>
+      <c r="O21" s="7">
+        <f>AVERAGE(O7:O20)</f>
+        <v>10.461538461538462</v>
+      </c>
       <c r="P21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:M10"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="C4:E5"/>
     <mergeCell ref="F4:J5"/>
@@ -1454,41 +1519,6 @@
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
